--- a/数据整理/stocks/A股/深证主板/002332-仙琚制药.xlsx
+++ b/数据整理/stocks/A股/深证主板/002332-仙琚制药.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,580 +512,790 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.00</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.55</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6059</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0298</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9342</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>000363</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>国泰聚信价值优势灵活配置混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>92.00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.55</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8973</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8349</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7705</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>519056</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>海富通内需热点混合</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>87.18</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>5.11</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7629</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4634</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3077</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2980</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2937</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>519015</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>海富通精选贰号混合</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>77.71</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>4.78</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2648</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>020010</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰金牛创新混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>168108</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>九泰锐诚灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华融新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>55.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519997</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长信银利精选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>79.30</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>020026</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰成长优选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.16</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008618</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>永赢医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>85.16</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008619</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>永赢医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>85.16</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>519011</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>海富通精选混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>78.19</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>519606</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国泰金鑫股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001797</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华融新利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>55.24</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005244</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国泰聚优价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005245</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国泰聚优价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007549</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中泰开阳价值优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>88.75</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>7.18</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007863</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>长信利泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>22.23</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008071</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>长信利泰灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>22.23</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>011437</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中泰开阳价值优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>88.75</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>7.18</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>168108</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>九泰锐诚灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>81.97</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>9.77</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>519951</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>长信利泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>22.23</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008415</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>国泰大制造两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1085,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,15 +1326,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009154</t>
+          <t>000362</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海富通富盈混合A</t>
+          <t>国泰聚信价值优势灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.86</t>
+          <t>53.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0008</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009155</t>
+          <t>010286</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海富通富盈混合C</t>
+          <t>海富通成长价值混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.86</t>
+          <t>32.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1312</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1182,25 +1432,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000362</t>
+          <t>000363</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰聚信价值优势灵活配置混合A</t>
+          <t>国泰聚信价值优势灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>91.88</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.63</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1102</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1210,25 +1470,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000363</t>
+          <t>008415</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰聚信价值优势灵活配置混合C</t>
+          <t>国泰大制造两年持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.88</t>
+          <t>21.87</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9973</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519056</t>
+          <t>020026</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海富通内需热点混合</t>
+          <t>国泰成长优选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>75.46</t>
+          <t>10.70</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.94</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8464</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005244</t>
+          <t>519011</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰聚优价值灵活配置混合A</t>
+          <t>海富通精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.24</t>
+          <t>13.38</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8322</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005245</t>
+          <t>020010</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰聚优价值灵活配置混合C</t>
+          <t>国泰金牛创新混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.24</t>
+          <t>16.27</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7094</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007549</t>
+          <t>519056</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中泰开阳价值优选灵活配置混合A</t>
+          <t>海富通内需热点混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>85.51</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>75.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5545</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011437</t>
+          <t>010220</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中泰开阳价值优选灵活配置混合C</t>
+          <t>海富通消费核心资产混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>85.51</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5200</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>519015</t>
+          <t>519606</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海富通精选贰号混合</t>
+          <t>国泰金鑫股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>69.79</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4709</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010220</t>
+          <t>007549</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海富通消费核心资产混合A</t>
+          <t>中泰开阳价值优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>72.29</t>
+          <t>9.19</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3943</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010221</t>
+          <t>007835</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>海富通消费核心资产混合C</t>
+          <t>国泰鑫睿混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>72.29</t>
+          <t>13.43</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3774</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010286</t>
+          <t>519015</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海富通成长价值混合A</t>
+          <t>海富通精选贰号混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>73.87</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>69.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2852</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010287</t>
+          <t>005244</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海富通成长价值混合C</t>
+          <t>国泰聚优价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>73.87</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2579</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1528,15 +1898,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>75.64</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1.99</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010709</t>
+          <t>010287</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>安信医药健康主题股票A</t>
+          <t>海富通成长价值混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>86.00</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1574,25 +1964,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010710</t>
+          <t>010709</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>安信医药健康主题股票C</t>
+          <t>安信医药健康主题股票A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>86.00</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>3.14</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>020010</t>
+          <t>010221</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>国泰金牛创新混合</t>
+          <t>海富通消费核心资产混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>91.25</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1630,25 +2040,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>020026</t>
+          <t>008618</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国泰成长优选混合</t>
+          <t>永赢医药健康股票A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>020033</t>
+          <t>011437</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>国泰民安增利债券A</t>
+          <t>中泰开阳价值优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>20.62</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>020034</t>
+          <t>009154</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>国泰民安增利债券C</t>
+          <t>海富通富盈混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>20.62</t>
+          <t>8.22</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>519011</t>
+          <t>002938</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>海富通精选混合</t>
+          <t>中银证券健康产业灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>69.61</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>6</v>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>519606</t>
+          <t>005245</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国泰金鑫股票</t>
+          <t>国泰聚优价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>7.07</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>008618</t>
+          <t>009155</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>永赢医药健康股票A</t>
+          <t>海富通富盈混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>8.02</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>3</v>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1808,15 +2278,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>89.77</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>8.02</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>002938</t>
+          <t>020033</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中银证券健康产业灵活配置混合</t>
+          <t>国泰民安增利债券A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>90.75</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2</v>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>007835</t>
+          <t>020034</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>国泰鑫睿混合</t>
+          <t>国泰民安增利债券C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>79.30</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>9</v>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>008415</t>
+          <t>010710</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>国泰大制造两年持有期混合</t>
+          <t>安信医药健康主题股票C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>92.42</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>3</v>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002332-仙琚制药.xlsx
+++ b/数据整理/stocks/A股/深证主板/002332-仙琚制药.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2417,4 +2418,1162 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7579</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5899</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0084</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0030</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9405</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7519</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6950</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6499</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6053</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5989</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5204</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4299</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3884</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3641</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3400</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2506</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2297</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>69.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>72.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>69.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002332-仙琚制药.xlsx
+++ b/数据整理/stocks/A股/深证主板/002332-仙琚制药.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3576,4 +3577,896 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6433</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0893</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0127</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8585</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7109</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6433</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5193</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4457</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4240</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3103</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3047</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2321</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002332-仙琚制药.xlsx
+++ b/数据整理/stocks/A股/深证主板/002332-仙琚制药.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4469,4 +4470,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002332-仙琚制药.xlsx
+++ b/数据整理/stocks/A股/深证主板/002332-仙琚制药.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4478,7 +4479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4489,17 +4490,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4509,14 +4530,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.88</v>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1009</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4525,14 +4568,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.98</v>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7760</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4541,14 +4606,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.34</v>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1777</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4557,13 +4644,797 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7921</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5220</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5194</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4918</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2908</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2869</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2393</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2282</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1841</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>21</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>10.93</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002332-仙琚制药.xlsx
+++ b/数据整理/stocks/A股/深证主板/002332-仙琚制药.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5333,7 +5334,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5344,17 +5345,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5364,14 +5385,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.5</v>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7735</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -5380,14 +5423,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.88</v>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4516</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -5396,14 +5461,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>29</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.98</v>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9678</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -5412,14 +5499,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>28</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12.34</v>
+          <t>015115</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票D</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9678</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -5428,13 +5537,431 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6238</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2216</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015309</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>28</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>21</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>10.93</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002332-仙琚制药.xlsx
+++ b/数据整理/stocks/A股/深证主板/002332-仙琚制药.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5844,7 +5845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5855,17 +5856,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5875,14 +5896,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.43</v>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2931</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -5891,14 +5934,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.5</v>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5237</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -5907,14 +5972,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.88</v>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0276</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -5923,14 +6010,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>29</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.98</v>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4935</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -5939,14 +6048,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>28</v>
-      </c>
-      <c r="D6" t="n">
-        <v>12.34</v>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4917</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -5955,13 +6086,335 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1700</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015115</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票D</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015114</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>29</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>21</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>10.93</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002332-仙琚制药.xlsx
+++ b/数据整理/stocks/A股/深证主板/002332-仙琚制药.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>7.01</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>6.43</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>9.5</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>10.88</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>14.98</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>12.34</v>
+        <v>14.98</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>28</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>21</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>10.93</v>
       </c>
     </row>
@@ -600,6 +617,820 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2098</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9703</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4565</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015115</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票D</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8136</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7997</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3346</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>66.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1815</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014126</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>66.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012430</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银汇理瑞康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015466</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>太平中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014820</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安创新医药锐选量化股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015114</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014821</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安创新医药锐选量化股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015467</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>太平中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1035,7 +1866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1545,7 +2376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2399,7 +3230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3291,7 +4122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4449,7 +5280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5569,7 +6400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002332-仙琚制药.xlsx
+++ b/数据整理/stocks/A股/深证主板/002332-仙琚制药.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>7.01</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>6.43</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>9.5</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>10.88</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>14.98</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>12.34</v>
+        <v>14.98</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,884 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>28</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>21</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>10.93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6059</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0298</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9342</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8973</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8349</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7705</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7629</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4634</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3077</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2980</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2937</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2648</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>168108</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>九泰锐诚灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华融新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>55.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1488,1048 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9442</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5048</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2739</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015115</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票D</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8719</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8243</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8127</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5090</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>67.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2258</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012160</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2134</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012159</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1708</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>68.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>61.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>61.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012430</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>农银汇理瑞康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>28.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014014</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>66.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014015</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>66.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015655</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富荣医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015114</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015656</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富荣医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1430,7 +3343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1866,7 +3779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2376,7 +4289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3230,7 +5143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4122,7 +6035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5280,7 +7193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6398,858 +8311,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000362</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰聚信价值优势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>79.25</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.6059</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008415</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰大制造两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.68</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0298</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>020010</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰金牛创新混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20.76</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9342</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000363</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰聚信价值优势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>19.72</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8973</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>020026</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰成长优选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>13.80</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.16</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.8349</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519011</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>海富通精选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>16.12</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>78.19</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.7705</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519056</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>海富通内需热点混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>14.93</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.18</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.7629</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>519606</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国泰金鑫股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>7.75</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4634</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>519997</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>长信银利精选混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.93</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>79.30</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3077</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007549</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中泰开阳价值优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>88.75</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>7.18</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2980</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005244</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国泰聚优价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>8.69</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2937</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>519015</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>海富通精选贰号混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>77.71</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2648</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011437</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中泰开阳价值优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>88.75</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>7.18</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1063</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008071</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>长信利泰灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>16.29</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>22.23</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0977</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>519951</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>长信利泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>16.29</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>22.23</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0977</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008618</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>永赢医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>85.16</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0668</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>168108</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>九泰锐诚灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>81.97</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>9.77</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0391</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005245</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>国泰聚优价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0328</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008619</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>永赢医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>85.16</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0185</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>007863</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>长信利泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>22.23</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001797</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华融新利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>55.24</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>